--- a/Icons/brand-icon-mapping.xlsx
+++ b/Icons/brand-icon-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ab3aa86f88f92f8/Desktop/folders/Data Analysis/EV Analysis/Australia-EV-Analysis/Icons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC1048FEA1D9647E5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F40538-4018-43AC-ADF4-F3D34B6AF1C6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC1048FEA1D9647E5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF8C7FC-F02C-493B-99A2-3728A6C9BEEF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Brand</t>
   </si>
@@ -77,14 +77,47 @@
     <t>ImageURL</t>
   </si>
   <si>
-    <t>x</t>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Chery.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Geely.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/BYD.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/GWM.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Leapmotor.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/MG.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Zeekr.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Xpeng.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Hyundai.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/TESLA.png</t>
+  </si>
+  <si>
+    <t>all-brand</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/all-brand.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,14 +159,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -139,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,21 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,113 +474,99 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>"https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/"&amp;A2&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Chery.png</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B11" si="0">"https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/"&amp;A3&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Geely.png</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/BYD.png</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/GWM.png</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Tesla.png</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Leapmotor.png</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/MG.png</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Zeekr.png</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Xpeng.png</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/daryl-san/Australia-EV-Analysis/refs/heads/main/Icons/Hyundai.png</v>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E8DC707A-19E4-42C7-AF1E-96793E96D812}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{98DD6A74-3BC1-4E8F-9359-9FC4B3765DBA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>